--- a/Messungen/speedtest_Auswertung1.xlsx
+++ b/Messungen/speedtest_Auswertung1.xlsx
@@ -605,8 +605,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.6389409400273798E-2"/>
-                  <c:y val="-6.4313263237304921E-2"/>
+                  <c:x val="-0.26634342100578984"/>
+                  <c:y val="0.22558395020981659"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1054,46 +1054,79 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="149697600"/>
-        <c:axId val="149699328"/>
+        <c:axId val="625612416"/>
+        <c:axId val="625612992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149697600"/>
+        <c:axId val="625612416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Zeit in Sekunden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149699328"/>
+        <c:crossAx val="625612992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149699328"/>
+        <c:axId val="625612992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Strecke in Millimeter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149697600"/>
+        <c:crossAx val="625612416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1332,11 +1365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153111936"/>
-        <c:axId val="153227776"/>
+        <c:axId val="5324800"/>
+        <c:axId val="5325376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153111936"/>
+        <c:axId val="5324800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,12 +1379,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153227776"/>
+        <c:crossAx val="5325376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153227776"/>
+        <c:axId val="5325376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153111936"/>
+        <c:crossAx val="5324800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1738,7 +1771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A73" sqref="A73:E100"/>
     </sheetView>
   </sheetViews>
